--- a/LED-HEX/hex.xlsx
+++ b/LED-HEX/hex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Arduino\LED-HEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6163B21-5E3B-4921-9880-A86C6E3C7D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ADD96C-E2E3-454B-AFFD-087A801876D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3F15CFC9-4F5D-464E-9DE5-A1DA4BD7B2B9}"/>
   </bookViews>
@@ -30,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -242,9 +245,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -260,671 +260,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="178">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="112">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2378,7 +1721,7 @@
   <dimension ref="A2:N192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2460,18 +1803,18 @@
       <c r="M3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="15">
         <f>SUM(K3:K10)</f>
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="10">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="10">
+      <c r="D4" s="17">
         <v>1</v>
       </c>
       <c r="E4" s="6"/>
@@ -2501,18 +1844,18 @@
       <c r="M4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="16" t="str">
+      <c r="N4" s="15" t="str">
         <f>DEC2HEX(N3)</f>
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="10"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
@@ -2542,18 +1885,18 @@
       <c r="M5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="16" t="str">
+      <c r="N5" s="15" t="str">
         <f>"0x" &amp; N4</f>
         <v>0x81</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="6"/>
       <c r="F6" s="8" t="s">
         <v>10</v>
@@ -2615,11 +1958,11 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="10">
+      <c r="B8" s="17">
         <v>1</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="10">
+      <c r="D8" s="17">
         <v>1</v>
       </c>
       <c r="E8" s="6"/>
@@ -2650,12 +1993,12 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="6" t="s">
         <v>2</v>
       </c>
@@ -2671,15 +2014,15 @@
         <v>1</v>
       </c>
       <c r="I9" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -2687,9 +2030,9 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="10"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
         <v>17</v>
@@ -2702,15 +2045,15 @@
         <v>1</v>
       </c>
       <c r="I10" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -2735,22 +2078,22 @@
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="15"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -2814,18 +2157,18 @@
       <c r="M15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="15">
         <f>SUM(K15:K22)</f>
         <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="10">
+      <c r="B16" s="17">
         <v>0</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="10">
+      <c r="D16" s="17">
         <v>1</v>
       </c>
       <c r="E16" s="6"/>
@@ -2855,18 +2198,18 @@
       <c r="M16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="16" t="str">
+      <c r="N16" s="15" t="str">
         <f>DEC2HEX(N15)</f>
         <v>CF</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="10"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="6" t="s">
         <v>1</v>
       </c>
@@ -2896,18 +2239,18 @@
       <c r="M17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="16" t="str">
+      <c r="N17" s="15" t="str">
         <f>"0x" &amp; N16</f>
         <v>0xCF</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
         <v>10</v>
@@ -2969,11 +2312,11 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" s="10">
+      <c r="B20" s="17">
         <v>0</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="10">
+      <c r="D20" s="17">
         <v>1</v>
       </c>
       <c r="E20" s="6"/>
@@ -3004,12 +2347,12 @@
       <c r="N20" s="9"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="6" t="s">
         <v>2</v>
       </c>
@@ -3025,15 +2368,15 @@
         <v>1</v>
       </c>
       <c r="I21" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -3041,9 +2384,9 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="6"/>
       <c r="F22" s="8" t="s">
         <v>17</v>
@@ -3056,15 +2399,15 @@
         <v>1</v>
       </c>
       <c r="I22" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" si="4"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="5"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -3089,22 +2432,22 @@
       <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="17" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="15"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="14"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -3168,18 +2511,18 @@
       <c r="M27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N27" s="16">
+      <c r="N27" s="15">
         <f>SUM(K27:K34)</f>
-        <v>162</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="10">
+      <c r="B28" s="17">
         <v>0</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="10">
+      <c r="D28" s="17">
         <v>1</v>
       </c>
       <c r="E28" s="6"/>
@@ -3209,18 +2552,18 @@
       <c r="M28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="16" t="str">
+      <c r="N28" s="15" t="str">
         <f>DEC2HEX(N27)</f>
-        <v>A2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="10"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="6" t="s">
         <v>1</v>
       </c>
@@ -3250,18 +2593,18 @@
       <c r="M29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N29" s="16" t="str">
+      <c r="N29" s="15" t="str">
         <f>"0x" &amp; N28</f>
-        <v>0xA2</v>
+        <v>0x23</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="12" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="6"/>
       <c r="F30" s="8" t="s">
         <v>10</v>
@@ -3325,11 +2668,11 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
-      <c r="B32" s="10">
+      <c r="B32" s="17">
         <v>1</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="10">
+      <c r="D32" s="17">
         <v>0</v>
       </c>
       <c r="E32" s="6"/>
@@ -3360,12 +2703,12 @@
       <c r="N32" s="9"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="10"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="10"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="6" t="s">
         <v>2</v>
       </c>
@@ -3381,11 +2724,11 @@
         <v>0</v>
       </c>
       <c r="I33" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" si="8"/>
@@ -3397,9 +2740,9 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-      <c r="B34" s="10"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="10"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="6"/>
       <c r="F34" s="8" t="s">
         <v>17</v>
@@ -3412,15 +2755,15 @@
         <v>1</v>
       </c>
       <c r="I34" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" si="7"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -3445,22 +2788,22 @@
       <c r="N35" s="9"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="17" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="15"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="14"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
@@ -3524,18 +2867,18 @@
       <c r="M39" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N39" s="16">
+      <c r="N39" s="15">
         <f>SUM(K39:K46)</f>
-        <v>138</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="10">
+      <c r="B40" s="17">
         <v>0</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="10">
+      <c r="D40" s="17">
         <v>1</v>
       </c>
       <c r="E40" s="6"/>
@@ -3565,18 +2908,18 @@
       <c r="M40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N40" s="16" t="str">
+      <c r="N40" s="15" t="str">
         <f>DEC2HEX(N39)</f>
-        <v>8A</v>
+        <v>B</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="10"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="10"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="6" t="s">
         <v>1</v>
       </c>
@@ -3606,18 +2949,18 @@
       <c r="M41" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N41" s="16" t="str">
+      <c r="N41" s="15" t="str">
         <f>"0x" &amp; N40</f>
-        <v>0x8A</v>
+        <v>0xB</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="12" t="s">
+      <c r="B42" s="17"/>
+      <c r="C42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="10"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="6"/>
       <c r="F42" s="8" t="s">
         <v>10</v>
@@ -3681,11 +3024,11 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="10">
+      <c r="B44" s="17">
         <v>0</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="10">
+      <c r="D44" s="17">
         <v>1</v>
       </c>
       <c r="E44" s="6"/>
@@ -3716,12 +3059,12 @@
       <c r="N44" s="9"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="10"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="10"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="6" t="s">
         <v>2</v>
       </c>
@@ -3737,11 +3080,11 @@
         <v>0</v>
       </c>
       <c r="I45" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J45" s="6">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K45" s="6">
         <f t="shared" si="11"/>
@@ -3753,9 +3096,9 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-      <c r="B46" s="10"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="10"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="6"/>
       <c r="F46" s="8" t="s">
         <v>17</v>
@@ -3768,15 +3111,15 @@
         <v>1</v>
       </c>
       <c r="I46" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J46" s="6">
         <f t="shared" si="10"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K46" s="6">
         <f t="shared" si="11"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
@@ -3801,22 +3144,22 @@
       <c r="N47" s="9"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="17" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="15"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="14"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
@@ -3880,18 +3223,18 @@
       <c r="M51" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N51" s="16">
+      <c r="N51" s="15">
         <f>SUM(K51:K58)</f>
-        <v>204</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
-      <c r="B52" s="10">
+      <c r="B52" s="17">
         <v>1</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="10">
+      <c r="D52" s="17">
         <v>1</v>
       </c>
       <c r="E52" s="6"/>
@@ -3921,18 +3264,18 @@
       <c r="M52" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N52" s="16" t="str">
+      <c r="N52" s="15" t="str">
         <f>DEC2HEX(N51)</f>
-        <v>CC</v>
+        <v>4D</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="10"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="10"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="6" t="s">
         <v>1</v>
       </c>
@@ -3962,18 +3305,18 @@
       <c r="M53" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N53" s="16" t="str">
+      <c r="N53" s="15" t="str">
         <f>"0x" &amp; N52</f>
-        <v>0xCC</v>
+        <v>0x4D</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="12" t="s">
+      <c r="B54" s="17"/>
+      <c r="C54" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="10"/>
+      <c r="D54" s="17"/>
       <c r="E54" s="6"/>
       <c r="F54" s="8" t="s">
         <v>10</v>
@@ -4037,11 +3380,11 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
-      <c r="B56" s="10">
+      <c r="B56" s="17">
         <v>0</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="10">
+      <c r="D56" s="17">
         <v>1</v>
       </c>
       <c r="E56" s="6"/>
@@ -4072,12 +3415,12 @@
       <c r="N56" s="9"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="10"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="10"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="6" t="s">
         <v>2</v>
       </c>
@@ -4093,11 +3436,11 @@
         <v>0</v>
       </c>
       <c r="I57" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J57" s="6">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K57" s="6">
         <f t="shared" si="14"/>
@@ -4109,9 +3452,9 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
-      <c r="B58" s="10"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="10"/>
+      <c r="D58" s="17"/>
       <c r="E58" s="6"/>
       <c r="F58" s="8" t="s">
         <v>17</v>
@@ -4124,15 +3467,15 @@
         <v>1</v>
       </c>
       <c r="I58" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J58" s="6">
         <f t="shared" si="13"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K58" s="6">
         <f t="shared" si="14"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
@@ -4157,22 +3500,22 @@
       <c r="N59" s="9"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="17" t="s">
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="15"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="14"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
@@ -4236,18 +3579,18 @@
       <c r="M63" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N63" s="16">
+      <c r="N63" s="15">
         <f>SUM(K63:K70)</f>
-        <v>152</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
-      <c r="B64" s="10">
+      <c r="B64" s="17">
         <v>1</v>
       </c>
       <c r="C64" s="6"/>
-      <c r="D64" s="10">
+      <c r="D64" s="17">
         <v>0</v>
       </c>
       <c r="E64" s="6"/>
@@ -4277,18 +3620,18 @@
       <c r="M64" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N64" s="16" t="str">
+      <c r="N64" s="15" t="str">
         <f>DEC2HEX(N63)</f>
-        <v>98</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="10"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="10"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="6" t="s">
         <v>1</v>
       </c>
@@ -4318,18 +3661,18 @@
       <c r="M65" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N65" s="16" t="str">
+      <c r="N65" s="15" t="str">
         <f>"0x" &amp; N64</f>
-        <v>0x98</v>
+        <v>0x19</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="12" t="s">
+      <c r="B66" s="17"/>
+      <c r="C66" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="10"/>
+      <c r="D66" s="17"/>
       <c r="E66" s="6"/>
       <c r="F66" s="8" t="s">
         <v>10</v>
@@ -4393,11 +3736,11 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
-      <c r="B68" s="10">
+      <c r="B68" s="17">
         <v>0</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="10">
+      <c r="D68" s="17">
         <v>1</v>
       </c>
       <c r="E68" s="6"/>
@@ -4428,12 +3771,12 @@
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="10"/>
+      <c r="B69" s="17"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="10"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="6" t="s">
         <v>2</v>
       </c>
@@ -4449,11 +3792,11 @@
         <v>0</v>
       </c>
       <c r="I69" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J69" s="6">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K69" s="6">
         <f t="shared" si="17"/>
@@ -4465,9 +3808,9 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
-      <c r="B70" s="10"/>
+      <c r="B70" s="17"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="10"/>
+      <c r="D70" s="17"/>
       <c r="E70" s="6"/>
       <c r="F70" s="8" t="s">
         <v>17</v>
@@ -4480,15 +3823,15 @@
         <v>1</v>
       </c>
       <c r="I70" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J70" s="6">
         <f t="shared" si="16"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K70" s="6">
         <f t="shared" si="17"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
@@ -4513,22 +3856,22 @@
       <c r="N71" s="9"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="17" t="s">
+      <c r="A72" s="12"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="15"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="14"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
@@ -4592,18 +3935,18 @@
       <c r="M75" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N75" s="16">
+      <c r="N75" s="15">
         <f>SUM(K75:K82)</f>
-        <v>144</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
-      <c r="B76" s="10">
+      <c r="B76" s="17">
         <v>1</v>
       </c>
       <c r="C76" s="6"/>
-      <c r="D76" s="10">
+      <c r="D76" s="17">
         <v>0</v>
       </c>
       <c r="E76" s="6"/>
@@ -4633,18 +3976,18 @@
       <c r="M76" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N76" s="16" t="str">
+      <c r="N76" s="15" t="str">
         <f>DEC2HEX(N75)</f>
-        <v>90</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="10"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="10"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="6" t="s">
         <v>1</v>
       </c>
@@ -4674,18 +4017,18 @@
       <c r="M77" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N77" s="16" t="str">
+      <c r="N77" s="15" t="str">
         <f>"0x" &amp; N76</f>
-        <v>0x90</v>
+        <v>0x11</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="12" t="s">
+      <c r="B78" s="17"/>
+      <c r="C78" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="10"/>
+      <c r="D78" s="17"/>
       <c r="E78" s="6"/>
       <c r="F78" s="8" t="s">
         <v>10</v>
@@ -4749,11 +4092,11 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
-      <c r="B80" s="10">
+      <c r="B80" s="17">
         <v>1</v>
       </c>
       <c r="C80" s="6"/>
-      <c r="D80" s="10">
+      <c r="D80" s="17">
         <v>1</v>
       </c>
       <c r="E80" s="6"/>
@@ -4784,12 +4127,12 @@
       <c r="N80" s="9"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B81" s="10"/>
+      <c r="B81" s="17"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="10"/>
+      <c r="D81" s="17"/>
       <c r="E81" s="6" t="s">
         <v>2</v>
       </c>
@@ -4805,11 +4148,11 @@
         <v>0</v>
       </c>
       <c r="I81" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J81" s="6">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K81" s="6">
         <f t="shared" si="20"/>
@@ -4821,9 +4164,9 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
-      <c r="B82" s="10"/>
+      <c r="B82" s="17"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="10"/>
+      <c r="D82" s="17"/>
       <c r="E82" s="6"/>
       <c r="F82" s="8" t="s">
         <v>17</v>
@@ -4836,15 +4179,15 @@
         <v>1</v>
       </c>
       <c r="I82" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J82" s="6">
         <f t="shared" si="19"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K82" s="6">
         <f t="shared" si="20"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
@@ -4869,22 +4212,22 @@
       <c r="N83" s="9"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="13"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="17" t="s">
+      <c r="A84" s="12"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="15"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="14"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
@@ -4948,18 +4291,18 @@
       <c r="M87" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N87" s="16">
+      <c r="N87" s="15">
         <f>SUM(K87:K94)</f>
         <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
-      <c r="B88" s="10">
+      <c r="B88" s="17">
         <v>0</v>
       </c>
       <c r="C88" s="6"/>
-      <c r="D88" s="10">
+      <c r="D88" s="17">
         <v>1</v>
       </c>
       <c r="E88" s="6"/>
@@ -4989,18 +4332,18 @@
       <c r="M88" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N88" s="16" t="str">
+      <c r="N88" s="15" t="str">
         <f>DEC2HEX(N87)</f>
         <v>CB</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B89" s="10"/>
+      <c r="B89" s="17"/>
       <c r="C89" s="6"/>
-      <c r="D89" s="10"/>
+      <c r="D89" s="17"/>
       <c r="E89" s="6" t="s">
         <v>1</v>
       </c>
@@ -5030,18 +4373,18 @@
       <c r="M89" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N89" s="16" t="str">
+      <c r="N89" s="15" t="str">
         <f>"0x" &amp; N88</f>
         <v>0xCB</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="12" t="s">
+      <c r="B90" s="17"/>
+      <c r="C90" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="10"/>
+      <c r="D90" s="17"/>
       <c r="E90" s="6"/>
       <c r="F90" s="8" t="s">
         <v>10</v>
@@ -5103,11 +4446,11 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
-      <c r="B92" s="10">
+      <c r="B92" s="17">
         <v>0</v>
       </c>
       <c r="C92" s="6"/>
-      <c r="D92" s="10">
+      <c r="D92" s="17">
         <v>1</v>
       </c>
       <c r="E92" s="6"/>
@@ -5138,12 +4481,12 @@
       <c r="N92" s="9"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="10"/>
+      <c r="B93" s="17"/>
       <c r="C93" s="6"/>
-      <c r="D93" s="10"/>
+      <c r="D93" s="17"/>
       <c r="E93" s="6" t="s">
         <v>2</v>
       </c>
@@ -5159,15 +4502,15 @@
         <v>1</v>
       </c>
       <c r="I93" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J93" s="6">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K93" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
@@ -5175,9 +4518,9 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
-      <c r="B94" s="10"/>
+      <c r="B94" s="17"/>
       <c r="C94" s="6"/>
-      <c r="D94" s="10"/>
+      <c r="D94" s="17"/>
       <c r="E94" s="6"/>
       <c r="F94" s="8" t="s">
         <v>17</v>
@@ -5190,15 +4533,15 @@
         <v>1</v>
       </c>
       <c r="I94" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J94" s="6">
         <f t="shared" si="22"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K94" s="6">
         <f t="shared" si="23"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
@@ -5223,22 +4566,22 @@
       <c r="N95" s="9"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="13"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="17" t="s">
+      <c r="A96" s="12"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="14"/>
-      <c r="N96" s="15"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="14"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
@@ -5302,18 +4645,18 @@
       <c r="M99" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N99" s="16">
+      <c r="N99" s="15">
         <f>SUM(K99:K106)</f>
-        <v>128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
-      <c r="B100" s="10">
+      <c r="B100" s="17">
         <v>1</v>
       </c>
       <c r="C100" s="6"/>
-      <c r="D100" s="10">
+      <c r="D100" s="17">
         <v>1</v>
       </c>
       <c r="E100" s="6"/>
@@ -5343,18 +4686,18 @@
       <c r="M100" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N100" s="16" t="str">
+      <c r="N100" s="15" t="str">
         <f>DEC2HEX(N99)</f>
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B101" s="10"/>
+      <c r="B101" s="17"/>
       <c r="C101" s="6"/>
-      <c r="D101" s="10"/>
+      <c r="D101" s="17"/>
       <c r="E101" s="6" t="s">
         <v>1</v>
       </c>
@@ -5384,18 +4727,18 @@
       <c r="M101" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N101" s="16" t="str">
+      <c r="N101" s="15" t="str">
         <f>"0x" &amp; N100</f>
-        <v>0x80</v>
+        <v>0x1</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="12" t="s">
+      <c r="B102" s="17"/>
+      <c r="C102" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="10"/>
+      <c r="D102" s="17"/>
       <c r="E102" s="6"/>
       <c r="F102" s="8" t="s">
         <v>10</v>
@@ -5459,11 +4802,11 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
-      <c r="B104" s="10">
+      <c r="B104" s="17">
         <v>1</v>
       </c>
       <c r="C104" s="6"/>
-      <c r="D104" s="10">
+      <c r="D104" s="17">
         <v>1</v>
       </c>
       <c r="E104" s="6"/>
@@ -5494,12 +4837,12 @@
       <c r="N104" s="9"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B105" s="10"/>
+      <c r="B105" s="17"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="10"/>
+      <c r="D105" s="17"/>
       <c r="E105" s="6" t="s">
         <v>2</v>
       </c>
@@ -5515,11 +4858,11 @@
         <v>0</v>
       </c>
       <c r="I105" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J105" s="6">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K105" s="6">
         <f t="shared" si="26"/>
@@ -5531,9 +4874,9 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
-      <c r="B106" s="10"/>
+      <c r="B106" s="17"/>
       <c r="C106" s="6"/>
-      <c r="D106" s="10"/>
+      <c r="D106" s="17"/>
       <c r="E106" s="6"/>
       <c r="F106" s="8" t="s">
         <v>17</v>
@@ -5546,15 +4889,15 @@
         <v>1</v>
       </c>
       <c r="I106" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J106" s="6">
         <f t="shared" si="25"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K106" s="6">
         <f t="shared" si="26"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
@@ -5579,22 +4922,22 @@
       <c r="N107" s="9"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="13"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="17" t="s">
+      <c r="A108" s="12"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
-      <c r="N108" s="15"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="14"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
@@ -5658,18 +5001,18 @@
       <c r="M111" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N111" s="16">
+      <c r="N111" s="15">
         <f>SUM(K111:K118)</f>
-        <v>136</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
-      <c r="B112" s="10">
+      <c r="B112" s="17">
         <v>1</v>
       </c>
       <c r="C112" s="6"/>
-      <c r="D112" s="10">
+      <c r="D112" s="17">
         <v>1</v>
       </c>
       <c r="E112" s="6"/>
@@ -5699,18 +5042,18 @@
       <c r="M112" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N112" s="16" t="str">
+      <c r="N112" s="15" t="str">
         <f>DEC2HEX(N111)</f>
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="10"/>
+      <c r="B113" s="17"/>
       <c r="C113" s="6"/>
-      <c r="D113" s="10"/>
+      <c r="D113" s="17"/>
       <c r="E113" s="6" t="s">
         <v>1</v>
       </c>
@@ -5740,18 +5083,18 @@
       <c r="M113" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N113" s="16" t="str">
+      <c r="N113" s="15" t="str">
         <f>"0x" &amp; N112</f>
-        <v>0x88</v>
+        <v>0x9</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="12" t="s">
+      <c r="B114" s="17"/>
+      <c r="C114" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D114" s="10"/>
+      <c r="D114" s="17"/>
       <c r="E114" s="6"/>
       <c r="F114" s="8" t="s">
         <v>10</v>
@@ -5815,11 +5158,11 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
-      <c r="B116" s="10">
+      <c r="B116" s="17">
         <v>0</v>
       </c>
       <c r="C116" s="6"/>
-      <c r="D116" s="10">
+      <c r="D116" s="17">
         <v>1</v>
       </c>
       <c r="E116" s="6"/>
@@ -5850,12 +5193,12 @@
       <c r="N116" s="9"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B117" s="10"/>
+      <c r="B117" s="17"/>
       <c r="C117" s="6"/>
-      <c r="D117" s="10"/>
+      <c r="D117" s="17"/>
       <c r="E117" s="6" t="s">
         <v>2</v>
       </c>
@@ -5871,11 +5214,11 @@
         <v>0</v>
       </c>
       <c r="I117" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J117" s="6">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K117" s="6">
         <f t="shared" si="29"/>
@@ -5887,9 +5230,9 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
-      <c r="B118" s="10"/>
+      <c r="B118" s="17"/>
       <c r="C118" s="6"/>
-      <c r="D118" s="10"/>
+      <c r="D118" s="17"/>
       <c r="E118" s="6"/>
       <c r="F118" s="8" t="s">
         <v>17</v>
@@ -5902,15 +5245,15 @@
         <v>1</v>
       </c>
       <c r="I118" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J118" s="6">
         <f t="shared" si="28"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K118" s="6">
         <f t="shared" si="29"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
@@ -5935,22 +5278,22 @@
       <c r="N119" s="9"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120" s="13"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="17" t="s">
+      <c r="A120" s="12"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14"/>
-      <c r="K120" s="14"/>
-      <c r="L120" s="14"/>
-      <c r="M120" s="14"/>
-      <c r="N120" s="15"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
+      <c r="L120" s="13"/>
+      <c r="M120" s="13"/>
+      <c r="N120" s="14"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
@@ -6014,18 +5357,18 @@
       <c r="M123" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N123" s="16">
+      <c r="N123" s="15">
         <f>SUM(K123:K130)</f>
-        <v>192</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
-      <c r="B124" s="10">
+      <c r="B124" s="17">
         <v>1</v>
       </c>
       <c r="C124" s="6"/>
-      <c r="D124" s="10">
+      <c r="D124" s="17">
         <v>1</v>
       </c>
       <c r="E124" s="6"/>
@@ -6055,18 +5398,18 @@
       <c r="M124" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N124" s="16" t="str">
+      <c r="N124" s="15" t="str">
         <f>DEC2HEX(N123)</f>
-        <v>C0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="10"/>
+      <c r="B125" s="17"/>
       <c r="C125" s="6"/>
-      <c r="D125" s="10"/>
+      <c r="D125" s="17"/>
       <c r="E125" s="6" t="s">
         <v>1</v>
       </c>
@@ -6096,18 +5439,18 @@
       <c r="M125" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N125" s="16" t="str">
+      <c r="N125" s="15" t="str">
         <f>"0x" &amp; N124</f>
-        <v>0xC0</v>
+        <v>0x41</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="12" t="s">
+      <c r="B126" s="17"/>
+      <c r="C126" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D126" s="10"/>
+      <c r="D126" s="17"/>
       <c r="E126" s="6"/>
       <c r="F126" s="8" t="s">
         <v>10</v>
@@ -6171,11 +5514,11 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
-      <c r="B128" s="10">
+      <c r="B128" s="17">
         <v>1</v>
       </c>
       <c r="C128" s="6"/>
-      <c r="D128" s="10">
+      <c r="D128" s="17">
         <v>1</v>
       </c>
       <c r="E128" s="6"/>
@@ -6206,12 +5549,12 @@
       <c r="N128" s="9"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B129" s="10"/>
+      <c r="B129" s="17"/>
       <c r="C129" s="6"/>
-      <c r="D129" s="10"/>
+      <c r="D129" s="17"/>
       <c r="E129" s="6" t="s">
         <v>2</v>
       </c>
@@ -6227,11 +5570,11 @@
         <v>0</v>
       </c>
       <c r="I129" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J129" s="6">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K129" s="6">
         <f t="shared" si="32"/>
@@ -6243,9 +5586,9 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
-      <c r="B130" s="10"/>
+      <c r="B130" s="17"/>
       <c r="C130" s="6"/>
-      <c r="D130" s="10"/>
+      <c r="D130" s="17"/>
       <c r="E130" s="6"/>
       <c r="F130" s="8" t="s">
         <v>17</v>
@@ -6258,15 +5601,15 @@
         <v>1</v>
       </c>
       <c r="I130" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J130" s="6">
         <f t="shared" si="31"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K130" s="6">
         <f t="shared" si="32"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
@@ -6291,22 +5634,22 @@
       <c r="N131" s="9"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="13"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="17" t="s">
+      <c r="A132" s="12"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="14"/>
-      <c r="K132" s="14"/>
-      <c r="L132" s="14"/>
-      <c r="M132" s="14"/>
-      <c r="N132" s="15"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="13"/>
+      <c r="L132" s="13"/>
+      <c r="M132" s="13"/>
+      <c r="N132" s="14"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
@@ -6370,18 +5713,18 @@
       <c r="M135" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N135" s="16">
+      <c r="N135" s="15">
         <f>SUM(K135:K142)</f>
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
-      <c r="B136" s="10">
+      <c r="B136" s="17">
         <v>1</v>
       </c>
       <c r="C136" s="6"/>
-      <c r="D136" s="10">
+      <c r="D136" s="17">
         <v>0</v>
       </c>
       <c r="E136" s="6"/>
@@ -6411,18 +5754,18 @@
       <c r="M136" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N136" s="16" t="str">
+      <c r="N136" s="15" t="str">
         <f>DEC2HEX(N135)</f>
-        <v>94</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A137" s="11" t="s">
+      <c r="A137" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B137" s="10"/>
+      <c r="B137" s="17"/>
       <c r="C137" s="6"/>
-      <c r="D137" s="10"/>
+      <c r="D137" s="17"/>
       <c r="E137" s="6" t="s">
         <v>1</v>
       </c>
@@ -6452,18 +5795,18 @@
       <c r="M137" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N137" s="16" t="str">
+      <c r="N137" s="15" t="str">
         <f>"0x" &amp; N136</f>
-        <v>0x94</v>
+        <v>0x15</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="12" t="s">
+      <c r="B138" s="17"/>
+      <c r="C138" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D138" s="10"/>
+      <c r="D138" s="17"/>
       <c r="E138" s="6"/>
       <c r="F138" s="8" t="s">
         <v>10</v>
@@ -6527,11 +5870,11 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
-      <c r="B140" s="10">
+      <c r="B140" s="17">
         <v>1</v>
       </c>
       <c r="C140" s="6"/>
-      <c r="D140" s="10">
+      <c r="D140" s="17">
         <v>1</v>
       </c>
       <c r="E140" s="6"/>
@@ -6562,12 +5905,12 @@
       <c r="N140" s="9"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A141" s="11" t="s">
+      <c r="A141" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B141" s="10"/>
+      <c r="B141" s="17"/>
       <c r="C141" s="6"/>
-      <c r="D141" s="10"/>
+      <c r="D141" s="17"/>
       <c r="E141" s="6" t="s">
         <v>2</v>
       </c>
@@ -6583,11 +5926,11 @@
         <v>0</v>
       </c>
       <c r="I141" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J141" s="6">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K141" s="6">
         <f t="shared" si="35"/>
@@ -6599,9 +5942,9 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
-      <c r="B142" s="10"/>
+      <c r="B142" s="17"/>
       <c r="C142" s="6"/>
-      <c r="D142" s="10"/>
+      <c r="D142" s="17"/>
       <c r="E142" s="6"/>
       <c r="F142" s="8" t="s">
         <v>17</v>
@@ -6614,15 +5957,15 @@
         <v>1</v>
       </c>
       <c r="I142" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J142" s="6">
         <f t="shared" si="34"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K142" s="6">
         <f t="shared" si="35"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L142" s="6"/>
       <c r="M142" s="6"/>
@@ -6647,22 +5990,22 @@
       <c r="N143" s="9"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A144" s="13"/>
-      <c r="B144" s="14"/>
-      <c r="C144" s="17" t="s">
+      <c r="A144" s="12"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
-      <c r="J144" s="14"/>
-      <c r="K144" s="14"/>
-      <c r="L144" s="14"/>
-      <c r="M144" s="14"/>
-      <c r="N144" s="15"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="13"/>
+      <c r="L144" s="13"/>
+      <c r="M144" s="13"/>
+      <c r="N144" s="14"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
@@ -6726,18 +6069,18 @@
       <c r="M147" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N147" s="16">
+      <c r="N147" s="15">
         <f>SUM(K147:K154)</f>
         <v>177</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
-      <c r="B148" s="10">
+      <c r="B148" s="17">
         <v>1</v>
       </c>
       <c r="C148" s="6"/>
-      <c r="D148" s="10">
+      <c r="D148" s="17">
         <v>0</v>
       </c>
       <c r="E148" s="6"/>
@@ -6767,18 +6110,18 @@
       <c r="M148" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N148" s="16" t="str">
+      <c r="N148" s="15" t="str">
         <f>DEC2HEX(N147)</f>
         <v>B1</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A149" s="11" t="s">
+      <c r="A149" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B149" s="10"/>
+      <c r="B149" s="17"/>
       <c r="C149" s="6"/>
-      <c r="D149" s="10"/>
+      <c r="D149" s="17"/>
       <c r="E149" s="6" t="s">
         <v>1</v>
       </c>
@@ -6808,18 +6151,18 @@
       <c r="M149" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N149" s="16" t="str">
+      <c r="N149" s="15" t="str">
         <f>"0x" &amp; N148</f>
         <v>0xB1</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="12" t="s">
+      <c r="B150" s="17"/>
+      <c r="C150" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D150" s="10"/>
+      <c r="D150" s="17"/>
       <c r="E150" s="6"/>
       <c r="F150" s="8" t="s">
         <v>10</v>
@@ -6883,11 +6226,11 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
-      <c r="B152" s="10">
+      <c r="B152" s="17">
         <v>1</v>
       </c>
       <c r="C152" s="6"/>
-      <c r="D152" s="10">
+      <c r="D152" s="17">
         <v>0</v>
       </c>
       <c r="E152" s="6"/>
@@ -6918,12 +6261,12 @@
       <c r="N152" s="9"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A153" s="11" t="s">
+      <c r="A153" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B153" s="10"/>
+      <c r="B153" s="17"/>
       <c r="C153" s="6"/>
-      <c r="D153" s="10"/>
+      <c r="D153" s="17"/>
       <c r="E153" s="6" t="s">
         <v>2</v>
       </c>
@@ -6939,15 +6282,15 @@
         <v>1</v>
       </c>
       <c r="I153" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J153" s="6">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K153" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L153" s="6"/>
       <c r="M153" s="6"/>
@@ -6955,9 +6298,9 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
-      <c r="B154" s="10"/>
+      <c r="B154" s="17"/>
       <c r="C154" s="6"/>
-      <c r="D154" s="10"/>
+      <c r="D154" s="17"/>
       <c r="E154" s="6"/>
       <c r="F154" s="8" t="s">
         <v>17</v>
@@ -6970,15 +6313,15 @@
         <v>1</v>
       </c>
       <c r="I154" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J154" s="6">
         <f t="shared" si="37"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K154" s="6">
         <f t="shared" si="38"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L154" s="6"/>
       <c r="M154" s="6"/>
@@ -7003,22 +6346,22 @@
       <c r="N155" s="9"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A156" s="13"/>
-      <c r="B156" s="14"/>
-      <c r="C156" s="17" t="s">
+      <c r="A156" s="12"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="14"/>
-      <c r="I156" s="14"/>
-      <c r="J156" s="14"/>
-      <c r="K156" s="14"/>
-      <c r="L156" s="14"/>
-      <c r="M156" s="14"/>
-      <c r="N156" s="15"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="13"/>
+      <c r="K156" s="13"/>
+      <c r="L156" s="13"/>
+      <c r="M156" s="13"/>
+      <c r="N156" s="14"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
@@ -7082,18 +6425,18 @@
       <c r="M159" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N159" s="16">
+      <c r="N159" s="15">
         <f>SUM(K159:K166)</f>
-        <v>134</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
-      <c r="B160" s="10">
+      <c r="B160" s="17">
         <v>0</v>
       </c>
       <c r="C160" s="6"/>
-      <c r="D160" s="10">
+      <c r="D160" s="17">
         <v>1</v>
       </c>
       <c r="E160" s="6"/>
@@ -7123,18 +6466,18 @@
       <c r="M160" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N160" s="16" t="str">
+      <c r="N160" s="15" t="str">
         <f>DEC2HEX(N159)</f>
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A161" s="11" t="s">
+      <c r="A161" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B161" s="10"/>
+      <c r="B161" s="17"/>
       <c r="C161" s="6"/>
-      <c r="D161" s="10"/>
+      <c r="D161" s="17"/>
       <c r="E161" s="6" t="s">
         <v>1</v>
       </c>
@@ -7164,18 +6507,18 @@
       <c r="M161" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N161" s="16" t="str">
+      <c r="N161" s="15" t="str">
         <f>"0x" &amp; N160</f>
-        <v>0x86</v>
+        <v>0x7</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
-      <c r="B162" s="10"/>
-      <c r="C162" s="12" t="s">
+      <c r="B162" s="17"/>
+      <c r="C162" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D162" s="10"/>
+      <c r="D162" s="17"/>
       <c r="E162" s="6"/>
       <c r="F162" s="8" t="s">
         <v>10</v>
@@ -7239,11 +6582,11 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
-      <c r="B164" s="10">
+      <c r="B164" s="17">
         <v>1</v>
       </c>
       <c r="C164" s="6"/>
-      <c r="D164" s="10">
+      <c r="D164" s="17">
         <v>1</v>
       </c>
       <c r="E164" s="6"/>
@@ -7274,12 +6617,12 @@
       <c r="N164" s="9"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A165" s="11" t="s">
+      <c r="A165" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B165" s="10"/>
+      <c r="B165" s="17"/>
       <c r="C165" s="6"/>
-      <c r="D165" s="10"/>
+      <c r="D165" s="17"/>
       <c r="E165" s="6" t="s">
         <v>2</v>
       </c>
@@ -7295,11 +6638,11 @@
         <v>0</v>
       </c>
       <c r="I165" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J165" s="6">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K165" s="6">
         <f t="shared" si="41"/>
@@ -7311,9 +6654,9 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
-      <c r="B166" s="10"/>
+      <c r="B166" s="17"/>
       <c r="C166" s="6"/>
-      <c r="D166" s="10"/>
+      <c r="D166" s="17"/>
       <c r="E166" s="6"/>
       <c r="F166" s="8" t="s">
         <v>17</v>
@@ -7326,15 +6669,15 @@
         <v>1</v>
       </c>
       <c r="I166" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J166" s="6">
         <f t="shared" si="40"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K166" s="6">
         <f t="shared" si="41"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L166" s="6"/>
       <c r="M166" s="6"/>
@@ -7359,22 +6702,22 @@
       <c r="N167" s="9"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A168" s="13"/>
-      <c r="B168" s="14"/>
-      <c r="C168" s="17" t="s">
+      <c r="A168" s="12"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="14"/>
-      <c r="I168" s="14"/>
-      <c r="J168" s="14"/>
-      <c r="K168" s="14"/>
-      <c r="L168" s="14"/>
-      <c r="M168" s="14"/>
-      <c r="N168" s="15"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="13"/>
+      <c r="J168" s="13"/>
+      <c r="K168" s="13"/>
+      <c r="L168" s="13"/>
+      <c r="M168" s="13"/>
+      <c r="N168" s="14"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
@@ -7438,18 +6781,18 @@
       <c r="M171" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N171" s="16">
+      <c r="N171" s="15">
         <f>SUM(K171:K178)</f>
-        <v>176</v>
+        <v>49</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
-      <c r="B172" s="10">
+      <c r="B172" s="17">
         <v>1</v>
       </c>
       <c r="C172" s="6"/>
-      <c r="D172" s="10">
+      <c r="D172" s="17">
         <v>0</v>
       </c>
       <c r="E172" s="6"/>
@@ -7479,18 +6822,18 @@
       <c r="M172" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N172" s="16" t="str">
+      <c r="N172" s="15" t="str">
         <f>DEC2HEX(N171)</f>
-        <v>B0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A173" s="11" t="s">
+      <c r="A173" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B173" s="10"/>
+      <c r="B173" s="17"/>
       <c r="C173" s="6"/>
-      <c r="D173" s="10"/>
+      <c r="D173" s="17"/>
       <c r="E173" s="6" t="s">
         <v>1</v>
       </c>
@@ -7520,18 +6863,18 @@
       <c r="M173" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N173" s="16" t="str">
+      <c r="N173" s="15" t="str">
         <f>"0x" &amp; N172</f>
-        <v>0xB0</v>
+        <v>0x31</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
-      <c r="B174" s="10"/>
-      <c r="C174" s="12" t="s">
+      <c r="B174" s="17"/>
+      <c r="C174" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D174" s="10"/>
+      <c r="D174" s="17"/>
       <c r="E174" s="6"/>
       <c r="F174" s="8" t="s">
         <v>10</v>
@@ -7595,11 +6938,11 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
-      <c r="B176" s="10">
+      <c r="B176" s="17">
         <v>1</v>
       </c>
       <c r="C176" s="6"/>
-      <c r="D176" s="10">
+      <c r="D176" s="17">
         <v>0</v>
       </c>
       <c r="E176" s="6"/>
@@ -7630,12 +6973,12 @@
       <c r="N176" s="9"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A177" s="11" t="s">
+      <c r="A177" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B177" s="10"/>
+      <c r="B177" s="17"/>
       <c r="C177" s="6"/>
-      <c r="D177" s="10"/>
+      <c r="D177" s="17"/>
       <c r="E177" s="6" t="s">
         <v>2</v>
       </c>
@@ -7651,11 +6994,11 @@
         <v>0</v>
       </c>
       <c r="I177" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J177" s="6">
         <f t="shared" si="43"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K177" s="6">
         <f t="shared" si="44"/>
@@ -7667,9 +7010,9 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
-      <c r="B178" s="10"/>
+      <c r="B178" s="17"/>
       <c r="C178" s="6"/>
-      <c r="D178" s="10"/>
+      <c r="D178" s="17"/>
       <c r="E178" s="6"/>
       <c r="F178" s="8" t="s">
         <v>17</v>
@@ -7682,15 +7025,15 @@
         <v>1</v>
       </c>
       <c r="I178" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J178" s="6">
         <f t="shared" si="43"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K178" s="6">
         <f t="shared" si="44"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L178" s="6"/>
       <c r="M178" s="6"/>
@@ -7715,22 +7058,22 @@
       <c r="N179" s="9"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A180" s="13"/>
-      <c r="B180" s="14"/>
-      <c r="C180" s="17" t="s">
+      <c r="A180" s="12"/>
+      <c r="B180" s="13"/>
+      <c r="C180" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
-      <c r="G180" s="14"/>
-      <c r="H180" s="14"/>
-      <c r="I180" s="14"/>
-      <c r="J180" s="14"/>
-      <c r="K180" s="14"/>
-      <c r="L180" s="14"/>
-      <c r="M180" s="14"/>
-      <c r="N180" s="15"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="13"/>
+      <c r="K180" s="13"/>
+      <c r="L180" s="13"/>
+      <c r="M180" s="13"/>
+      <c r="N180" s="14"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
@@ -7794,18 +7137,18 @@
       <c r="M183" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N183" s="16">
+      <c r="N183" s="15">
         <f>SUM(K183:K190)</f>
-        <v>240</v>
+        <v>113</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
-      <c r="B184" s="10">
+      <c r="B184" s="17">
         <v>1</v>
       </c>
       <c r="C184" s="6"/>
-      <c r="D184" s="10">
+      <c r="D184" s="17">
         <v>0</v>
       </c>
       <c r="E184" s="6"/>
@@ -7835,18 +7178,18 @@
       <c r="M184" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N184" s="16" t="str">
+      <c r="N184" s="15" t="str">
         <f>DEC2HEX(N183)</f>
-        <v>F0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A185" s="11" t="s">
+      <c r="A185" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B185" s="10"/>
+      <c r="B185" s="17"/>
       <c r="C185" s="6"/>
-      <c r="D185" s="10"/>
+      <c r="D185" s="17"/>
       <c r="E185" s="6" t="s">
         <v>1</v>
       </c>
@@ -7876,18 +7219,18 @@
       <c r="M185" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N185" s="16" t="str">
+      <c r="N185" s="15" t="str">
         <f>"0x" &amp; N184</f>
-        <v>0xF0</v>
+        <v>0x71</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
-      <c r="B186" s="10"/>
-      <c r="C186" s="12" t="s">
+      <c r="B186" s="17"/>
+      <c r="C186" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D186" s="10"/>
+      <c r="D186" s="17"/>
       <c r="E186" s="6"/>
       <c r="F186" s="8" t="s">
         <v>10</v>
@@ -7951,11 +7294,11 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
-      <c r="B188" s="10">
+      <c r="B188" s="17">
         <v>1</v>
       </c>
       <c r="C188" s="6"/>
-      <c r="D188" s="10">
+      <c r="D188" s="17">
         <v>0</v>
       </c>
       <c r="E188" s="6"/>
@@ -7986,12 +7329,12 @@
       <c r="N188" s="9"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A189" s="11" t="s">
+      <c r="A189" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B189" s="10"/>
+      <c r="B189" s="17"/>
       <c r="C189" s="6"/>
-      <c r="D189" s="10"/>
+      <c r="D189" s="17"/>
       <c r="E189" s="6" t="s">
         <v>2</v>
       </c>
@@ -8007,11 +7350,11 @@
         <v>0</v>
       </c>
       <c r="I189" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J189" s="6">
         <f t="shared" si="46"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K189" s="6">
         <f t="shared" si="47"/>
@@ -8023,9 +7366,9 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
-      <c r="B190" s="10"/>
+      <c r="B190" s="17"/>
       <c r="C190" s="6"/>
-      <c r="D190" s="10"/>
+      <c r="D190" s="17"/>
       <c r="E190" s="6"/>
       <c r="F190" s="8" t="s">
         <v>17</v>
@@ -8038,15 +7381,15 @@
         <v>1</v>
       </c>
       <c r="I190" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J190" s="6">
         <f t="shared" si="46"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K190" s="6">
         <f t="shared" si="47"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L190" s="6"/>
       <c r="M190" s="6"/>
@@ -8071,25 +7414,79 @@
       <c r="N191" s="9"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A192" s="13"/>
-      <c r="B192" s="14"/>
-      <c r="C192" s="17" t="s">
+      <c r="A192" s="12"/>
+      <c r="B192" s="13"/>
+      <c r="C192" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14"/>
-      <c r="G192" s="14"/>
-      <c r="H192" s="14"/>
-      <c r="I192" s="14"/>
-      <c r="J192" s="14"/>
-      <c r="K192" s="14"/>
-      <c r="L192" s="14"/>
-      <c r="M192" s="14"/>
-      <c r="N192" s="15"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13"/>
+      <c r="G192" s="13"/>
+      <c r="H192" s="13"/>
+      <c r="I192" s="13"/>
+      <c r="J192" s="13"/>
+      <c r="K192" s="13"/>
+      <c r="L192" s="13"/>
+      <c r="M192" s="13"/>
+      <c r="N192" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="D124:D126"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="D140:D142"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="D148:D150"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="D152:D154"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="D160:D162"/>
     <mergeCell ref="B184:B186"/>
     <mergeCell ref="D184:D186"/>
     <mergeCell ref="B188:B190"/>
@@ -8100,741 +7497,559 @@
     <mergeCell ref="D172:D174"/>
     <mergeCell ref="B176:B178"/>
     <mergeCell ref="D176:D178"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="D148:D150"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="D152:D154"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="D160:D162"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="D140:D142"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="D124:D126"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D16:D18"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:B6 C3 D4:D6 C7 B8:B10 C11 D8:D10">
-    <cfRule type="cellIs" dxfId="177" priority="144" operator="equal">
+  <conditionalFormatting sqref="B4:B6">
+    <cfRule type="cellIs" dxfId="111" priority="140" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B10">
+    <cfRule type="cellIs" dxfId="110" priority="138" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B18">
+    <cfRule type="cellIs" dxfId="109" priority="131" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B22">
+    <cfRule type="cellIs" dxfId="108" priority="129" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B30">
+    <cfRule type="cellIs" dxfId="107" priority="122" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B34">
+    <cfRule type="cellIs" dxfId="106" priority="120" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:B42">
+    <cfRule type="cellIs" dxfId="105" priority="113" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B46">
+    <cfRule type="cellIs" dxfId="104" priority="111" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:B54">
+    <cfRule type="cellIs" dxfId="103" priority="104" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:B58">
+    <cfRule type="cellIs" dxfId="102" priority="102" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64:B66">
+    <cfRule type="cellIs" dxfId="101" priority="95" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:B70">
+    <cfRule type="cellIs" dxfId="100" priority="93" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76:B78">
+    <cfRule type="cellIs" dxfId="99" priority="86" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80:B82">
+    <cfRule type="cellIs" dxfId="98" priority="84" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88:B90">
+    <cfRule type="cellIs" dxfId="97" priority="77" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92:B94">
+    <cfRule type="cellIs" dxfId="96" priority="75" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100:B102">
+    <cfRule type="cellIs" dxfId="95" priority="68" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:B106">
+    <cfRule type="cellIs" dxfId="94" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B112:B114">
+    <cfRule type="cellIs" dxfId="93" priority="59" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116:B118">
+    <cfRule type="cellIs" dxfId="92" priority="57" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124:B126">
+    <cfRule type="cellIs" dxfId="91" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:B130">
+    <cfRule type="cellIs" dxfId="90" priority="48" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136:B138">
+    <cfRule type="cellIs" dxfId="89" priority="41" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B140:B142">
+    <cfRule type="cellIs" dxfId="88" priority="39" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148:B150">
+    <cfRule type="cellIs" dxfId="87" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B152:B154">
+    <cfRule type="cellIs" dxfId="86" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160:B162">
+    <cfRule type="cellIs" dxfId="85" priority="23" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B164:B166">
+    <cfRule type="cellIs" dxfId="84" priority="21" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B172:B174">
+    <cfRule type="cellIs" dxfId="83" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B176:B178">
+    <cfRule type="cellIs" dxfId="82" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B184:B186">
+    <cfRule type="cellIs" dxfId="81" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B188:B190">
+    <cfRule type="cellIs" dxfId="80" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="176" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="143" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="78" priority="139" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="77" priority="137" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="76" priority="134" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="75" priority="130" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="cellIs" dxfId="74" priority="128" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="cellIs" dxfId="73" priority="125" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="cellIs" dxfId="72" priority="121" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="cellIs" dxfId="71" priority="119" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="cellIs" dxfId="70" priority="116" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="cellIs" dxfId="69" priority="112" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="cellIs" dxfId="68" priority="110" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="cellIs" dxfId="67" priority="107" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="cellIs" dxfId="66" priority="103" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="cellIs" dxfId="65" priority="101" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="cellIs" dxfId="64" priority="98" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="cellIs" dxfId="63" priority="94" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="cellIs" dxfId="62" priority="92" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="cellIs" dxfId="61" priority="89" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="cellIs" dxfId="60" priority="85" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="cellIs" dxfId="59" priority="83" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="cellIs" dxfId="58" priority="80" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="cellIs" dxfId="57" priority="76" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95">
+    <cfRule type="cellIs" dxfId="56" priority="74" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C99">
+    <cfRule type="cellIs" dxfId="55" priority="71" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="cellIs" dxfId="54" priority="67" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107">
+    <cfRule type="cellIs" dxfId="53" priority="65" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111">
+    <cfRule type="cellIs" dxfId="52" priority="62" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115">
+    <cfRule type="cellIs" dxfId="51" priority="58" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
+    <cfRule type="cellIs" dxfId="50" priority="56" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="cellIs" dxfId="46" priority="44" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C139">
+    <cfRule type="cellIs" dxfId="45" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143">
+    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147">
+    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="42" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="cellIs" dxfId="41" priority="29" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="cellIs" dxfId="40" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C163">
+    <cfRule type="cellIs" dxfId="39" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167">
+    <cfRule type="cellIs" dxfId="38" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C171">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C175">
+    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179">
+    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C183">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C187">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C191">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D6">
-    <cfRule type="cellIs" dxfId="175" priority="142" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="174" priority="139" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="141" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B6">
-    <cfRule type="cellIs" dxfId="172" priority="140" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B10">
-    <cfRule type="cellIs" dxfId="171" priority="138" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="170" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="142" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D10">
-    <cfRule type="cellIs" dxfId="169" priority="136" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B18 C15 D16:D18 C19 B20:B22 C23 D20:D22">
-    <cfRule type="cellIs" dxfId="150" priority="135" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="149" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="136" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D18">
-    <cfRule type="cellIs" dxfId="148" priority="133" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="147" priority="130" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="132" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B18">
-    <cfRule type="cellIs" dxfId="145" priority="131" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B22">
-    <cfRule type="cellIs" dxfId="144" priority="129" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="143" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="133" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D22">
-    <cfRule type="cellIs" dxfId="142" priority="127" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B30 C27 D28:D30 C31 B32:B34 C35 D32:D34">
-    <cfRule type="cellIs" dxfId="125" priority="126" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="124" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="127" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D30">
-    <cfRule type="cellIs" dxfId="123" priority="124" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" dxfId="122" priority="121" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="123" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B30">
-    <cfRule type="cellIs" dxfId="120" priority="122" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B34">
-    <cfRule type="cellIs" dxfId="119" priority="120" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="118" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="124" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D34">
-    <cfRule type="cellIs" dxfId="117" priority="118" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B42 C39 D40:D42 C43 B44:B46 C47 D44:D46">
-    <cfRule type="cellIs" dxfId="116" priority="117" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="cellIs" dxfId="115" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D42">
-    <cfRule type="cellIs" dxfId="114" priority="115" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="114" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B42">
-    <cfRule type="cellIs" dxfId="111" priority="113" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B46">
-    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="115" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D46">
-    <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B54 C51 D52:D54 C55 B56:B58 C59 D56:D58">
-    <cfRule type="cellIs" dxfId="107" priority="108" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="cellIs" dxfId="106" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="109" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:D54">
-    <cfRule type="cellIs" dxfId="105" priority="106" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="105" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B54">
-    <cfRule type="cellIs" dxfId="102" priority="104" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56:B58">
-    <cfRule type="cellIs" dxfId="101" priority="102" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:D58">
-    <cfRule type="cellIs" dxfId="99" priority="100" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64:B66 C63 D64:D66 C67 B68:B70 C71 D68:D70">
-    <cfRule type="cellIs" dxfId="98" priority="99" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="100" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D66">
-    <cfRule type="cellIs" dxfId="96" priority="97" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="96" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64:B66">
-    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68:B70">
-    <cfRule type="cellIs" dxfId="92" priority="93" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="97" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:D70">
-    <cfRule type="cellIs" dxfId="90" priority="91" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B76:B78 C75 D76:D78 C79 B80:B82 C83 D80:D82">
-    <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="91" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:D78">
-    <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
-    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B76:B78">
-    <cfRule type="cellIs" dxfId="84" priority="86" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80:B82">
-    <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="88" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80:D82">
-    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B88:B90 C87 D88:D90 C91 B92:B94 C95 D92:D94">
-    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88:D90">
-    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="78" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B88:B90">
-    <cfRule type="cellIs" dxfId="75" priority="77" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B92:B94">
-    <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="79" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92:D94">
-    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100:B102 C99 D100:D102 C103 B104:B106 C107 D104:D106">
-    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C99">
-    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="73" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:D102">
-    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
-    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="69" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100:B102">
-    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B106">
-    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107">
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104:D106">
-    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B112:B114 C111 D112:D114 C115 B116:B118 C119 D116:D118">
-    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111">
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112:D114">
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115">
-    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="60" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B112:B114">
-    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B116:B118">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="61" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116:D118">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B126 C123 D124:D126 C127 B128:B130 C131 D128:D130">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D124:D126">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
-    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B126">
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B130">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D128:D130">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136:B138 C135 D136:D138 C139 B140:B142 C143 D140:D142">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136:D138">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C139">
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136:B138">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B140:B142">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C143">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D140:D142">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148:B150 C147 D148:D150 C151 B152:B154 C155 D152:D154">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D148:D150">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148:B150">
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D152:D154">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160:B162 C159 D160:D162 C163 B164:B166 C167 D164:D166">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D160:D162">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160:B162">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B164:B166">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D164:D166">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B172:B174 C171 D172:D174 C175 B176:B178 C179 D176:D178">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C171">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D172:D174">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C175">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B172:B174">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B176:B178">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:D178">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B184:B186 C183 D184:D186 C187 B188:B190 C191 D188:D190">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C183">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D184:D186">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C187">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B184:B186">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B188:B190">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C191">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/LED-HEX/hex.xlsx
+++ b/LED-HEX/hex.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Arduino\LED-HEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ADD96C-E2E3-454B-AFFD-087A801876D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CE6E0A-0833-4863-9471-8861DD0DAD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3F15CFC9-4F5D-464E-9DE5-A1DA4BD7B2B9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="55">
   <si>
     <t>A</t>
   </si>
@@ -108,6 +108,102 @@
   </si>
   <si>
     <t>Для Си</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -230,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -260,6 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1718,10 +1815,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7BAD2A-5869-4D50-9A4A-578880C10AD8}">
-  <dimension ref="A2:N192"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A2:S192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1739,9 +1837,10 @@
     <col min="13" max="13" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.88671875" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -1768,8 +1867,20 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
@@ -1807,14 +1918,26 @@
         <f>SUM(K3:K10)</f>
         <v>129</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="17">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="17">
+      <c r="D4" s="18">
         <v>1</v>
       </c>
       <c r="E4" s="6"/>
@@ -1848,14 +1971,26 @@
         <f>DEC2HEX(N3)</f>
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="17"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1889,14 +2024,26 @@
         <f>"0x" &amp; N4</f>
         <v>0x81</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="6"/>
       <c r="F6" s="8" t="s">
         <v>10</v>
@@ -1923,11 +2070,25 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="8" t="s">
@@ -1955,14 +2116,26 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="17">
+      <c r="B8" s="18">
         <v>1</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="17">
+      <c r="D8" s="18">
         <v>1</v>
       </c>
       <c r="E8" s="6"/>
@@ -1991,14 +2164,26 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="6" t="s">
         <v>2</v>
       </c>
@@ -2014,25 +2199,37 @@
         <v>1</v>
       </c>
       <c r="I9" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="17"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
         <v>17</v>
@@ -2045,21 +2242,33 @@
         <v>1</v>
       </c>
       <c r="I10" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7">
@@ -2076,8 +2285,20 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="16" t="s">
@@ -2094,8 +2315,34 @@
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="14"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
@@ -2122,8 +2369,20 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7">
@@ -2161,14 +2420,26 @@
         <f>SUM(K15:K22)</f>
         <v>207</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="17">
+      <c r="B16" s="18">
         <v>0</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="17">
+      <c r="D16" s="18">
         <v>1</v>
       </c>
       <c r="E16" s="6"/>
@@ -2202,14 +2473,26 @@
         <f>DEC2HEX(N15)</f>
         <v>CF</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="17"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="6" t="s">
         <v>1</v>
       </c>
@@ -2243,14 +2526,26 @@
         <f>"0x" &amp; N16</f>
         <v>0xCF</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
         <v>10</v>
@@ -2278,10 +2573,12 @@
       <c r="M18" s="6"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
@@ -2310,13 +2607,13 @@
       <c r="M19" s="6"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" s="17">
+      <c r="B20" s="18">
         <v>0</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="17">
+      <c r="D20" s="18">
         <v>1</v>
       </c>
       <c r="E20" s="6"/>
@@ -2346,13 +2643,13 @@
       <c r="M20" s="6"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="6" t="s">
         <v>2</v>
       </c>
@@ -2368,25 +2665,25 @@
         <v>1</v>
       </c>
       <c r="I21" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" si="4"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="5"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
-      <c r="B22" s="17"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="17"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="6"/>
       <c r="F22" s="8" t="s">
         <v>17</v>
@@ -2399,21 +2696,21 @@
         <v>1</v>
       </c>
       <c r="I22" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7">
@@ -2431,7 +2728,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="16" t="s">
@@ -2449,7 +2746,7 @@
       <c r="M24" s="13"/>
       <c r="N24" s="14"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3" t="s">
@@ -2477,7 +2774,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7">
@@ -2513,16 +2810,16 @@
       </c>
       <c r="N27" s="15">
         <f>SUM(K27:K34)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="17">
+      <c r="B28" s="18">
         <v>0</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="17">
+      <c r="D28" s="18">
         <v>1</v>
       </c>
       <c r="E28" s="6"/>
@@ -2554,16 +2851,16 @@
       </c>
       <c r="N28" s="15" t="str">
         <f>DEC2HEX(N27)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="17"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="6" t="s">
         <v>1</v>
       </c>
@@ -2595,16 +2892,16 @@
       </c>
       <c r="N29" s="15" t="str">
         <f>"0x" &amp; N28</f>
-        <v>0x23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0xA2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
-      <c r="B30" s="17"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="6"/>
       <c r="F30" s="8" t="s">
         <v>10</v>
@@ -2632,7 +2929,7 @@
       <c r="M30" s="6"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7">
@@ -2666,13 +2963,13 @@
       <c r="M31" s="6"/>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
-      <c r="B32" s="17">
+      <c r="B32" s="18">
         <v>1</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="17">
+      <c r="D32" s="18">
         <v>0</v>
       </c>
       <c r="E32" s="6"/>
@@ -2706,9 +3003,9 @@
       <c r="A33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="17"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="17"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="6" t="s">
         <v>2</v>
       </c>
@@ -2724,11 +3021,11 @@
         <v>0</v>
       </c>
       <c r="I33" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" si="7"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" si="8"/>
@@ -2740,9 +3037,9 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-      <c r="B34" s="17"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="17"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="6"/>
       <c r="F34" s="8" t="s">
         <v>17</v>
@@ -2755,15 +3052,15 @@
         <v>1</v>
       </c>
       <c r="I34" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -2869,16 +3166,16 @@
       </c>
       <c r="N39" s="15">
         <f>SUM(K39:K46)</f>
-        <v>11</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="17">
+      <c r="B40" s="18">
         <v>0</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="17">
+      <c r="D40" s="18">
         <v>1</v>
       </c>
       <c r="E40" s="6"/>
@@ -2910,16 +3207,16 @@
       </c>
       <c r="N40" s="15" t="str">
         <f>DEC2HEX(N39)</f>
-        <v>B</v>
+        <v>8A</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="17"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="17"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="6" t="s">
         <v>1</v>
       </c>
@@ -2951,16 +3248,16 @@
       </c>
       <c r="N41" s="15" t="str">
         <f>"0x" &amp; N40</f>
-        <v>0xB</v>
+        <v>0x8A</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="17"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="6"/>
       <c r="F42" s="8" t="s">
         <v>10</v>
@@ -3024,11 +3321,11 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="17">
+      <c r="B44" s="18">
         <v>0</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="17">
+      <c r="D44" s="18">
         <v>1</v>
       </c>
       <c r="E44" s="6"/>
@@ -3062,9 +3359,9 @@
       <c r="A45" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="17"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="17"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="6" t="s">
         <v>2</v>
       </c>
@@ -3080,11 +3377,11 @@
         <v>0</v>
       </c>
       <c r="I45" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J45" s="6">
         <f t="shared" si="10"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K45" s="6">
         <f t="shared" si="11"/>
@@ -3096,9 +3393,9 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-      <c r="B46" s="17"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="17"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="6"/>
       <c r="F46" s="8" t="s">
         <v>17</v>
@@ -3111,15 +3408,15 @@
         <v>1</v>
       </c>
       <c r="I46" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J46" s="6">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K46" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
@@ -3225,16 +3522,16 @@
       </c>
       <c r="N51" s="15">
         <f>SUM(K51:K58)</f>
-        <v>77</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
-      <c r="B52" s="17">
+      <c r="B52" s="18">
         <v>1</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="17">
+      <c r="D52" s="18">
         <v>1</v>
       </c>
       <c r="E52" s="6"/>
@@ -3266,16 +3563,16 @@
       </c>
       <c r="N52" s="15" t="str">
         <f>DEC2HEX(N51)</f>
-        <v>4D</v>
+        <v>CC</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="17"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="17"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="6" t="s">
         <v>1</v>
       </c>
@@ -3307,16 +3604,16 @@
       </c>
       <c r="N53" s="15" t="str">
         <f>"0x" &amp; N52</f>
-        <v>0x4D</v>
+        <v>0xCC</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
-      <c r="B54" s="17"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="17"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="6"/>
       <c r="F54" s="8" t="s">
         <v>10</v>
@@ -3380,11 +3677,11 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
-      <c r="B56" s="17">
+      <c r="B56" s="18">
         <v>0</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="17">
+      <c r="D56" s="18">
         <v>1</v>
       </c>
       <c r="E56" s="6"/>
@@ -3418,9 +3715,9 @@
       <c r="A57" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="17"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="17"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="6" t="s">
         <v>2</v>
       </c>
@@ -3436,11 +3733,11 @@
         <v>0</v>
       </c>
       <c r="I57" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J57" s="6">
         <f t="shared" si="13"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K57" s="6">
         <f t="shared" si="14"/>
@@ -3452,9 +3749,9 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
-      <c r="B58" s="17"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="17"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="6"/>
       <c r="F58" s="8" t="s">
         <v>17</v>
@@ -3467,15 +3764,15 @@
         <v>1</v>
       </c>
       <c r="I58" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J58" s="6">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K58" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
@@ -3581,16 +3878,16 @@
       </c>
       <c r="N63" s="15">
         <f>SUM(K63:K70)</f>
-        <v>25</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
-      <c r="B64" s="17">
+      <c r="B64" s="18">
         <v>1</v>
       </c>
       <c r="C64" s="6"/>
-      <c r="D64" s="17">
+      <c r="D64" s="18">
         <v>0</v>
       </c>
       <c r="E64" s="6"/>
@@ -3622,16 +3919,16 @@
       </c>
       <c r="N64" s="15" t="str">
         <f>DEC2HEX(N63)</f>
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="17"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="17"/>
+      <c r="D65" s="18"/>
       <c r="E65" s="6" t="s">
         <v>1</v>
       </c>
@@ -3663,16 +3960,16 @@
       </c>
       <c r="N65" s="15" t="str">
         <f>"0x" &amp; N64</f>
-        <v>0x19</v>
+        <v>0x98</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
-      <c r="B66" s="17"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="17"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="6"/>
       <c r="F66" s="8" t="s">
         <v>10</v>
@@ -3736,11 +4033,11 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
-      <c r="B68" s="17">
+      <c r="B68" s="18">
         <v>0</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="17">
+      <c r="D68" s="18">
         <v>1</v>
       </c>
       <c r="E68" s="6"/>
@@ -3774,9 +4071,9 @@
       <c r="A69" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="17"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="17"/>
+      <c r="D69" s="18"/>
       <c r="E69" s="6" t="s">
         <v>2</v>
       </c>
@@ -3792,11 +4089,11 @@
         <v>0</v>
       </c>
       <c r="I69" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J69" s="6">
         <f t="shared" si="16"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K69" s="6">
         <f t="shared" si="17"/>
@@ -3808,9 +4105,9 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
-      <c r="B70" s="17"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="17"/>
+      <c r="D70" s="18"/>
       <c r="E70" s="6"/>
       <c r="F70" s="8" t="s">
         <v>17</v>
@@ -3823,15 +4120,15 @@
         <v>1</v>
       </c>
       <c r="I70" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J70" s="6">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K70" s="6">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
@@ -3937,16 +4234,16 @@
       </c>
       <c r="N75" s="15">
         <f>SUM(K75:K82)</f>
-        <v>17</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
-      <c r="B76" s="17">
+      <c r="B76" s="18">
         <v>1</v>
       </c>
       <c r="C76" s="6"/>
-      <c r="D76" s="17">
+      <c r="D76" s="18">
         <v>0</v>
       </c>
       <c r="E76" s="6"/>
@@ -3978,16 +4275,16 @@
       </c>
       <c r="N76" s="15" t="str">
         <f>DEC2HEX(N75)</f>
-        <v>11</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="17"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="17"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="6" t="s">
         <v>1</v>
       </c>
@@ -4019,16 +4316,16 @@
       </c>
       <c r="N77" s="15" t="str">
         <f>"0x" &amp; N76</f>
-        <v>0x11</v>
+        <v>0x90</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
-      <c r="B78" s="17"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="17"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="6"/>
       <c r="F78" s="8" t="s">
         <v>10</v>
@@ -4092,11 +4389,11 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
-      <c r="B80" s="17">
+      <c r="B80" s="18">
         <v>1</v>
       </c>
       <c r="C80" s="6"/>
-      <c r="D80" s="17">
+      <c r="D80" s="18">
         <v>1</v>
       </c>
       <c r="E80" s="6"/>
@@ -4130,9 +4427,9 @@
       <c r="A81" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B81" s="17"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="17"/>
+      <c r="D81" s="18"/>
       <c r="E81" s="6" t="s">
         <v>2</v>
       </c>
@@ -4148,11 +4445,11 @@
         <v>0</v>
       </c>
       <c r="I81" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J81" s="6">
         <f t="shared" si="19"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K81" s="6">
         <f t="shared" si="20"/>
@@ -4164,9 +4461,9 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
-      <c r="B82" s="17"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="17"/>
+      <c r="D82" s="18"/>
       <c r="E82" s="6"/>
       <c r="F82" s="8" t="s">
         <v>17</v>
@@ -4179,15 +4476,15 @@
         <v>1</v>
       </c>
       <c r="I82" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J82" s="6">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K82" s="6">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
@@ -4298,11 +4595,11 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
-      <c r="B88" s="17">
+      <c r="B88" s="18">
         <v>0</v>
       </c>
       <c r="C88" s="6"/>
-      <c r="D88" s="17">
+      <c r="D88" s="18">
         <v>1</v>
       </c>
       <c r="E88" s="6"/>
@@ -4341,9 +4638,9 @@
       <c r="A89" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B89" s="17"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="6"/>
-      <c r="D89" s="17"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="6" t="s">
         <v>1</v>
       </c>
@@ -4380,11 +4677,11 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
-      <c r="B90" s="17"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="17"/>
+      <c r="D90" s="18"/>
       <c r="E90" s="6"/>
       <c r="F90" s="8" t="s">
         <v>10</v>
@@ -4415,7 +4712,9 @@
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="7"/>
+      <c r="C91" s="7">
+        <v>0</v>
+      </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="8" t="s">
@@ -4446,11 +4745,11 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
-      <c r="B92" s="17">
+      <c r="B92" s="18">
         <v>0</v>
       </c>
       <c r="C92" s="6"/>
-      <c r="D92" s="17">
+      <c r="D92" s="18">
         <v>1</v>
       </c>
       <c r="E92" s="6"/>
@@ -4484,9 +4783,9 @@
       <c r="A93" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="17"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="6"/>
-      <c r="D93" s="17"/>
+      <c r="D93" s="18"/>
       <c r="E93" s="6" t="s">
         <v>2</v>
       </c>
@@ -4502,15 +4801,15 @@
         <v>1</v>
       </c>
       <c r="I93" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J93" s="6">
         <f t="shared" si="22"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K93" s="6">
         <f t="shared" si="23"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
@@ -4518,9 +4817,9 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
-      <c r="B94" s="17"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="6"/>
-      <c r="D94" s="17"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="6"/>
       <c r="F94" s="8" t="s">
         <v>17</v>
@@ -4533,15 +4832,15 @@
         <v>1</v>
       </c>
       <c r="I94" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J94" s="6">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K94" s="6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
@@ -4647,16 +4946,16 @@
       </c>
       <c r="N99" s="15">
         <f>SUM(K99:K106)</f>
-        <v>1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
-      <c r="B100" s="17">
+      <c r="B100" s="18">
         <v>1</v>
       </c>
       <c r="C100" s="6"/>
-      <c r="D100" s="17">
+      <c r="D100" s="18">
         <v>1</v>
       </c>
       <c r="E100" s="6"/>
@@ -4688,16 +4987,16 @@
       </c>
       <c r="N100" s="15" t="str">
         <f>DEC2HEX(N99)</f>
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B101" s="17"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="6"/>
-      <c r="D101" s="17"/>
+      <c r="D101" s="18"/>
       <c r="E101" s="6" t="s">
         <v>1</v>
       </c>
@@ -4729,16 +5028,16 @@
       </c>
       <c r="N101" s="15" t="str">
         <f>"0x" &amp; N100</f>
-        <v>0x1</v>
+        <v>0x80</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
-      <c r="B102" s="17"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="17"/>
+      <c r="D102" s="18"/>
       <c r="E102" s="6"/>
       <c r="F102" s="8" t="s">
         <v>10</v>
@@ -4802,11 +5101,11 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
-      <c r="B104" s="17">
+      <c r="B104" s="18">
         <v>1</v>
       </c>
       <c r="C104" s="6"/>
-      <c r="D104" s="17">
+      <c r="D104" s="18">
         <v>1</v>
       </c>
       <c r="E104" s="6"/>
@@ -4840,9 +5139,9 @@
       <c r="A105" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B105" s="17"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="17"/>
+      <c r="D105" s="18"/>
       <c r="E105" s="6" t="s">
         <v>2</v>
       </c>
@@ -4858,11 +5157,11 @@
         <v>0</v>
       </c>
       <c r="I105" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J105" s="6">
         <f t="shared" si="25"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K105" s="6">
         <f t="shared" si="26"/>
@@ -4874,9 +5173,9 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
-      <c r="B106" s="17"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="6"/>
-      <c r="D106" s="17"/>
+      <c r="D106" s="18"/>
       <c r="E106" s="6"/>
       <c r="F106" s="8" t="s">
         <v>17</v>
@@ -4889,15 +5188,15 @@
         <v>1</v>
       </c>
       <c r="I106" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J106" s="6">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K106" s="6">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
@@ -5003,16 +5302,16 @@
       </c>
       <c r="N111" s="15">
         <f>SUM(K111:K118)</f>
-        <v>9</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
-      <c r="B112" s="17">
+      <c r="B112" s="18">
         <v>1</v>
       </c>
       <c r="C112" s="6"/>
-      <c r="D112" s="17">
+      <c r="D112" s="18">
         <v>1</v>
       </c>
       <c r="E112" s="6"/>
@@ -5044,16 +5343,16 @@
       </c>
       <c r="N112" s="15" t="str">
         <f>DEC2HEX(N111)</f>
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="17"/>
+      <c r="B113" s="18"/>
       <c r="C113" s="6"/>
-      <c r="D113" s="17"/>
+      <c r="D113" s="18"/>
       <c r="E113" s="6" t="s">
         <v>1</v>
       </c>
@@ -5085,16 +5384,16 @@
       </c>
       <c r="N113" s="15" t="str">
         <f>"0x" &amp; N112</f>
-        <v>0x9</v>
+        <v>0x88</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
-      <c r="B114" s="17"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D114" s="17"/>
+      <c r="D114" s="18"/>
       <c r="E114" s="6"/>
       <c r="F114" s="8" t="s">
         <v>10</v>
@@ -5158,11 +5457,11 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
-      <c r="B116" s="17">
+      <c r="B116" s="18">
         <v>0</v>
       </c>
       <c r="C116" s="6"/>
-      <c r="D116" s="17">
+      <c r="D116" s="18">
         <v>1</v>
       </c>
       <c r="E116" s="6"/>
@@ -5196,9 +5495,9 @@
       <c r="A117" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B117" s="17"/>
+      <c r="B117" s="18"/>
       <c r="C117" s="6"/>
-      <c r="D117" s="17"/>
+      <c r="D117" s="18"/>
       <c r="E117" s="6" t="s">
         <v>2</v>
       </c>
@@ -5214,11 +5513,11 @@
         <v>0</v>
       </c>
       <c r="I117" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J117" s="6">
         <f t="shared" si="28"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K117" s="6">
         <f t="shared" si="29"/>
@@ -5230,9 +5529,9 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
-      <c r="B118" s="17"/>
+      <c r="B118" s="18"/>
       <c r="C118" s="6"/>
-      <c r="D118" s="17"/>
+      <c r="D118" s="18"/>
       <c r="E118" s="6"/>
       <c r="F118" s="8" t="s">
         <v>17</v>
@@ -5245,15 +5544,15 @@
         <v>1</v>
       </c>
       <c r="I118" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J118" s="6">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K118" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
@@ -5359,16 +5658,16 @@
       </c>
       <c r="N123" s="15">
         <f>SUM(K123:K130)</f>
-        <v>65</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
-      <c r="B124" s="17">
+      <c r="B124" s="18">
         <v>1</v>
       </c>
       <c r="C124" s="6"/>
-      <c r="D124" s="17">
+      <c r="D124" s="18">
         <v>1</v>
       </c>
       <c r="E124" s="6"/>
@@ -5400,16 +5699,16 @@
       </c>
       <c r="N124" s="15" t="str">
         <f>DEC2HEX(N123)</f>
-        <v>41</v>
+        <v>C0</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="17"/>
+      <c r="B125" s="18"/>
       <c r="C125" s="6"/>
-      <c r="D125" s="17"/>
+      <c r="D125" s="18"/>
       <c r="E125" s="6" t="s">
         <v>1</v>
       </c>
@@ -5441,16 +5740,16 @@
       </c>
       <c r="N125" s="15" t="str">
         <f>"0x" &amp; N124</f>
-        <v>0x41</v>
+        <v>0xC0</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
-      <c r="B126" s="17"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D126" s="17"/>
+      <c r="D126" s="18"/>
       <c r="E126" s="6"/>
       <c r="F126" s="8" t="s">
         <v>10</v>
@@ -5514,11 +5813,11 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
-      <c r="B128" s="17">
+      <c r="B128" s="18">
         <v>1</v>
       </c>
       <c r="C128" s="6"/>
-      <c r="D128" s="17">
+      <c r="D128" s="18">
         <v>1</v>
       </c>
       <c r="E128" s="6"/>
@@ -5552,9 +5851,9 @@
       <c r="A129" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B129" s="17"/>
+      <c r="B129" s="18"/>
       <c r="C129" s="6"/>
-      <c r="D129" s="17"/>
+      <c r="D129" s="18"/>
       <c r="E129" s="6" t="s">
         <v>2</v>
       </c>
@@ -5570,11 +5869,11 @@
         <v>0</v>
       </c>
       <c r="I129" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J129" s="6">
         <f t="shared" si="31"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K129" s="6">
         <f t="shared" si="32"/>
@@ -5586,9 +5885,9 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
-      <c r="B130" s="17"/>
+      <c r="B130" s="18"/>
       <c r="C130" s="6"/>
-      <c r="D130" s="17"/>
+      <c r="D130" s="18"/>
       <c r="E130" s="6"/>
       <c r="F130" s="8" t="s">
         <v>17</v>
@@ -5601,15 +5900,15 @@
         <v>1</v>
       </c>
       <c r="I130" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J130" s="6">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K130" s="6">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
@@ -5715,16 +6014,16 @@
       </c>
       <c r="N135" s="15">
         <f>SUM(K135:K142)</f>
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
-      <c r="B136" s="17">
+      <c r="B136" s="18">
         <v>1</v>
       </c>
       <c r="C136" s="6"/>
-      <c r="D136" s="17">
+      <c r="D136" s="18">
         <v>0</v>
       </c>
       <c r="E136" s="6"/>
@@ -5756,16 +6055,16 @@
       </c>
       <c r="N136" s="15" t="str">
         <f>DEC2HEX(N135)</f>
-        <v>15</v>
+        <v>94</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B137" s="17"/>
+      <c r="B137" s="18"/>
       <c r="C137" s="6"/>
-      <c r="D137" s="17"/>
+      <c r="D137" s="18"/>
       <c r="E137" s="6" t="s">
         <v>1</v>
       </c>
@@ -5797,16 +6096,16 @@
       </c>
       <c r="N137" s="15" t="str">
         <f>"0x" &amp; N136</f>
-        <v>0x15</v>
+        <v>0x94</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
-      <c r="B138" s="17"/>
+      <c r="B138" s="18"/>
       <c r="C138" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D138" s="17"/>
+      <c r="D138" s="18"/>
       <c r="E138" s="6"/>
       <c r="F138" s="8" t="s">
         <v>10</v>
@@ -5870,11 +6169,11 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
-      <c r="B140" s="17">
+      <c r="B140" s="18">
         <v>1</v>
       </c>
       <c r="C140" s="6"/>
-      <c r="D140" s="17">
+      <c r="D140" s="18">
         <v>1</v>
       </c>
       <c r="E140" s="6"/>
@@ -5908,9 +6207,9 @@
       <c r="A141" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B141" s="17"/>
+      <c r="B141" s="18"/>
       <c r="C141" s="6"/>
-      <c r="D141" s="17"/>
+      <c r="D141" s="18"/>
       <c r="E141" s="6" t="s">
         <v>2</v>
       </c>
@@ -5926,11 +6225,11 @@
         <v>0</v>
       </c>
       <c r="I141" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J141" s="6">
         <f t="shared" si="34"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K141" s="6">
         <f t="shared" si="35"/>
@@ -5942,9 +6241,9 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
-      <c r="B142" s="17"/>
+      <c r="B142" s="18"/>
       <c r="C142" s="6"/>
-      <c r="D142" s="17"/>
+      <c r="D142" s="18"/>
       <c r="E142" s="6"/>
       <c r="F142" s="8" t="s">
         <v>17</v>
@@ -5957,15 +6256,15 @@
         <v>1</v>
       </c>
       <c r="I142" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J142" s="6">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K142" s="6">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L142" s="6"/>
       <c r="M142" s="6"/>
@@ -6076,11 +6375,11 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
-      <c r="B148" s="17">
+      <c r="B148" s="18">
         <v>1</v>
       </c>
       <c r="C148" s="6"/>
-      <c r="D148" s="17">
+      <c r="D148" s="18">
         <v>0</v>
       </c>
       <c r="E148" s="6"/>
@@ -6119,9 +6418,9 @@
       <c r="A149" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B149" s="17"/>
+      <c r="B149" s="18"/>
       <c r="C149" s="6"/>
-      <c r="D149" s="17"/>
+      <c r="D149" s="18"/>
       <c r="E149" s="6" t="s">
         <v>1</v>
       </c>
@@ -6158,11 +6457,11 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
-      <c r="B150" s="17"/>
+      <c r="B150" s="18"/>
       <c r="C150" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D150" s="17"/>
+      <c r="D150" s="18"/>
       <c r="E150" s="6"/>
       <c r="F150" s="8" t="s">
         <v>10</v>
@@ -6226,11 +6525,11 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
-      <c r="B152" s="17">
+      <c r="B152" s="18">
         <v>1</v>
       </c>
       <c r="C152" s="6"/>
-      <c r="D152" s="17">
+      <c r="D152" s="18">
         <v>0</v>
       </c>
       <c r="E152" s="6"/>
@@ -6264,9 +6563,9 @@
       <c r="A153" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B153" s="17"/>
+      <c r="B153" s="18"/>
       <c r="C153" s="6"/>
-      <c r="D153" s="17"/>
+      <c r="D153" s="18"/>
       <c r="E153" s="6" t="s">
         <v>2</v>
       </c>
@@ -6282,15 +6581,15 @@
         <v>1</v>
       </c>
       <c r="I153" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J153" s="6">
         <f t="shared" si="37"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K153" s="6">
         <f t="shared" si="38"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="L153" s="6"/>
       <c r="M153" s="6"/>
@@ -6298,9 +6597,9 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
-      <c r="B154" s="17"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="6"/>
-      <c r="D154" s="17"/>
+      <c r="D154" s="18"/>
       <c r="E154" s="6"/>
       <c r="F154" s="8" t="s">
         <v>17</v>
@@ -6313,15 +6612,15 @@
         <v>1</v>
       </c>
       <c r="I154" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J154" s="6">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K154" s="6">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L154" s="6"/>
       <c r="M154" s="6"/>
@@ -6427,16 +6726,16 @@
       </c>
       <c r="N159" s="15">
         <f>SUM(K159:K166)</f>
-        <v>7</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
-      <c r="B160" s="17">
+      <c r="B160" s="18">
         <v>0</v>
       </c>
       <c r="C160" s="6"/>
-      <c r="D160" s="17">
+      <c r="D160" s="18">
         <v>1</v>
       </c>
       <c r="E160" s="6"/>
@@ -6468,16 +6767,16 @@
       </c>
       <c r="N160" s="15" t="str">
         <f>DEC2HEX(N159)</f>
-        <v>7</v>
+        <v>86</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B161" s="17"/>
+      <c r="B161" s="18"/>
       <c r="C161" s="6"/>
-      <c r="D161" s="17"/>
+      <c r="D161" s="18"/>
       <c r="E161" s="6" t="s">
         <v>1</v>
       </c>
@@ -6509,16 +6808,16 @@
       </c>
       <c r="N161" s="15" t="str">
         <f>"0x" &amp; N160</f>
-        <v>0x7</v>
+        <v>0x86</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
-      <c r="B162" s="17"/>
+      <c r="B162" s="18"/>
       <c r="C162" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D162" s="17"/>
+      <c r="D162" s="18"/>
       <c r="E162" s="6"/>
       <c r="F162" s="8" t="s">
         <v>10</v>
@@ -6582,11 +6881,11 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
-      <c r="B164" s="17">
+      <c r="B164" s="18">
         <v>1</v>
       </c>
       <c r="C164" s="6"/>
-      <c r="D164" s="17">
+      <c r="D164" s="18">
         <v>1</v>
       </c>
       <c r="E164" s="6"/>
@@ -6620,9 +6919,9 @@
       <c r="A165" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B165" s="17"/>
+      <c r="B165" s="18"/>
       <c r="C165" s="6"/>
-      <c r="D165" s="17"/>
+      <c r="D165" s="18"/>
       <c r="E165" s="6" t="s">
         <v>2</v>
       </c>
@@ -6638,11 +6937,11 @@
         <v>0</v>
       </c>
       <c r="I165" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J165" s="6">
         <f t="shared" si="40"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K165" s="6">
         <f t="shared" si="41"/>
@@ -6654,9 +6953,9 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
-      <c r="B166" s="17"/>
+      <c r="B166" s="18"/>
       <c r="C166" s="6"/>
-      <c r="D166" s="17"/>
+      <c r="D166" s="18"/>
       <c r="E166" s="6"/>
       <c r="F166" s="8" t="s">
         <v>17</v>
@@ -6669,15 +6968,15 @@
         <v>1</v>
       </c>
       <c r="I166" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J166" s="6">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K166" s="6">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L166" s="6"/>
       <c r="M166" s="6"/>
@@ -6783,16 +7082,16 @@
       </c>
       <c r="N171" s="15">
         <f>SUM(K171:K178)</f>
-        <v>49</v>
+        <v>176</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
-      <c r="B172" s="17">
+      <c r="B172" s="18">
         <v>1</v>
       </c>
       <c r="C172" s="6"/>
-      <c r="D172" s="17">
+      <c r="D172" s="18">
         <v>0</v>
       </c>
       <c r="E172" s="6"/>
@@ -6824,16 +7123,16 @@
       </c>
       <c r="N172" s="15" t="str">
         <f>DEC2HEX(N171)</f>
-        <v>31</v>
+        <v>B0</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B173" s="17"/>
+      <c r="B173" s="18"/>
       <c r="C173" s="6"/>
-      <c r="D173" s="17"/>
+      <c r="D173" s="18"/>
       <c r="E173" s="6" t="s">
         <v>1</v>
       </c>
@@ -6865,16 +7164,16 @@
       </c>
       <c r="N173" s="15" t="str">
         <f>"0x" &amp; N172</f>
-        <v>0x31</v>
+        <v>0xB0</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
-      <c r="B174" s="17"/>
+      <c r="B174" s="18"/>
       <c r="C174" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D174" s="17"/>
+      <c r="D174" s="18"/>
       <c r="E174" s="6"/>
       <c r="F174" s="8" t="s">
         <v>10</v>
@@ -6938,11 +7237,11 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
-      <c r="B176" s="17">
+      <c r="B176" s="18">
         <v>1</v>
       </c>
       <c r="C176" s="6"/>
-      <c r="D176" s="17">
+      <c r="D176" s="18">
         <v>0</v>
       </c>
       <c r="E176" s="6"/>
@@ -6976,9 +7275,9 @@
       <c r="A177" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B177" s="17"/>
+      <c r="B177" s="18"/>
       <c r="C177" s="6"/>
-      <c r="D177" s="17"/>
+      <c r="D177" s="18"/>
       <c r="E177" s="6" t="s">
         <v>2</v>
       </c>
@@ -6994,11 +7293,11 @@
         <v>0</v>
       </c>
       <c r="I177" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J177" s="6">
         <f t="shared" si="43"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K177" s="6">
         <f t="shared" si="44"/>
@@ -7010,9 +7309,9 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
-      <c r="B178" s="17"/>
+      <c r="B178" s="18"/>
       <c r="C178" s="6"/>
-      <c r="D178" s="17"/>
+      <c r="D178" s="18"/>
       <c r="E178" s="6"/>
       <c r="F178" s="8" t="s">
         <v>17</v>
@@ -7025,15 +7324,15 @@
         <v>1</v>
       </c>
       <c r="I178" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J178" s="6">
         <f t="shared" si="43"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K178" s="6">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L178" s="6"/>
       <c r="M178" s="6"/>
@@ -7139,16 +7438,16 @@
       </c>
       <c r="N183" s="15">
         <f>SUM(K183:K190)</f>
-        <v>113</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
-      <c r="B184" s="17">
+      <c r="B184" s="18">
         <v>1</v>
       </c>
       <c r="C184" s="6"/>
-      <c r="D184" s="17">
+      <c r="D184" s="18">
         <v>0</v>
       </c>
       <c r="E184" s="6"/>
@@ -7180,16 +7479,16 @@
       </c>
       <c r="N184" s="15" t="str">
         <f>DEC2HEX(N183)</f>
-        <v>71</v>
+        <v>F0</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B185" s="17"/>
+      <c r="B185" s="18"/>
       <c r="C185" s="6"/>
-      <c r="D185" s="17"/>
+      <c r="D185" s="18"/>
       <c r="E185" s="6" t="s">
         <v>1</v>
       </c>
@@ -7221,16 +7520,16 @@
       </c>
       <c r="N185" s="15" t="str">
         <f>"0x" &amp; N184</f>
-        <v>0x71</v>
+        <v>0xF0</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
-      <c r="B186" s="17"/>
+      <c r="B186" s="18"/>
       <c r="C186" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D186" s="17"/>
+      <c r="D186" s="18"/>
       <c r="E186" s="6"/>
       <c r="F186" s="8" t="s">
         <v>10</v>
@@ -7294,11 +7593,11 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
-      <c r="B188" s="17">
+      <c r="B188" s="18">
         <v>1</v>
       </c>
       <c r="C188" s="6"/>
-      <c r="D188" s="17">
+      <c r="D188" s="18">
         <v>0</v>
       </c>
       <c r="E188" s="6"/>
@@ -7332,9 +7631,9 @@
       <c r="A189" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B189" s="17"/>
+      <c r="B189" s="18"/>
       <c r="C189" s="6"/>
-      <c r="D189" s="17"/>
+      <c r="D189" s="18"/>
       <c r="E189" s="6" t="s">
         <v>2</v>
       </c>
@@ -7350,11 +7649,11 @@
         <v>0</v>
       </c>
       <c r="I189" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J189" s="6">
         <f t="shared" si="46"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="K189" s="6">
         <f t="shared" si="47"/>
@@ -7366,9 +7665,9 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
-      <c r="B190" s="17"/>
+      <c r="B190" s="18"/>
       <c r="C190" s="6"/>
-      <c r="D190" s="17"/>
+      <c r="D190" s="18"/>
       <c r="E190" s="6"/>
       <c r="F190" s="8" t="s">
         <v>17</v>
@@ -7381,15 +7680,15 @@
         <v>1</v>
       </c>
       <c r="I190" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J190" s="6">
         <f t="shared" si="46"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K190" s="6">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="L190" s="6"/>
       <c r="M190" s="6"/>
@@ -7433,60 +7732,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="D124:D126"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="D140:D142"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="D148:D150"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="D152:D154"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="D160:D162"/>
     <mergeCell ref="B184:B186"/>
     <mergeCell ref="D184:D186"/>
     <mergeCell ref="B188:B190"/>
@@ -7497,6 +7742,60 @@
     <mergeCell ref="D172:D174"/>
     <mergeCell ref="B176:B178"/>
     <mergeCell ref="D176:D178"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="D148:D150"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="D152:D154"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="D160:D162"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="D140:D142"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="D124:D126"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D16:D18"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B6">
     <cfRule type="cellIs" dxfId="111" priority="140" operator="equal">
